--- a/biology/Botanique/Wilfrid_Jasper_Walter_Blunt/Wilfrid_Jasper_Walter_Blunt.xlsx
+++ b/biology/Botanique/Wilfrid_Jasper_Walter_Blunt/Wilfrid_Jasper_Walter_Blunt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wilfrid Jasper Walter Blunt (1901–1987) est un artiste, professeur d'art et auteur anglais, conservateur de la Watts Gallery à Compton de 1959 à 1983.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wilfrid Blunt est le fils du révérend A.S.V. Blunt, prêtre anglican qui fut aumônier de l'ambassade de Grande-Bretagne à Paris. Il effectue ses études au Marlborough College[1], au Worcester College d'Oxford puis au Royal College of Art. 
-Maître d'art à Haileybury College de 1923 à 1938 puis à Eton College de cette date à 1959, il contribue au lancement d'une révolution de l'enseignement de l'écriture des écoliers britanniques, en introduisant l'écriture semi-cursive italienne du XVe siècle dite Cancellaresca ou " Chancery "[2],[3],[4].
-La Royal Horticultural Society lui remet la Médaille commémorative Veitch pour son ouvrage The Art of Botanical Illustration, paru chez Collins en 1950 dans la collection New Naturalist.  Cet ouvrage est le fruit d'une collaboration avec le botaniste William Thomas Stearn[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wilfrid Blunt est le fils du révérend A.S.V. Blunt, prêtre anglican qui fut aumônier de l'ambassade de Grande-Bretagne à Paris. Il effectue ses études au Marlborough College, au Worcester College d'Oxford puis au Royal College of Art. 
+Maître d'art à Haileybury College de 1923 à 1938 puis à Eton College de cette date à 1959, il contribue au lancement d'une révolution de l'enseignement de l'écriture des écoliers britanniques, en introduisant l'écriture semi-cursive italienne du XVe siècle dite Cancellaresca ou " Chancery ".
+La Royal Horticultural Society lui remet la Médaille commémorative Veitch pour son ouvrage The Art of Botanical Illustration, paru chez Collins en 1950 dans la collection New Naturalist.  Cet ouvrage est le fruit d'une collaboration avec le botaniste William Thomas Stearn.
 Wilfrid Blunt est le frère du numismate Christopher Evelyn Blunt et de l'historien d'art et spécialiste de l'art classique français Anthony Blunt.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Haileybury Buildings (1936)
 Desert Hawk : Abd el Kader and the French Conquest of Algeria (Methuen, 1947)
